--- a/Examples/Quote.xlsx
+++ b/Examples/Quote.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09328A9-EC6F-48F7-A0F4-15AF6B3E9846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D2F04-D0C7-4CB6-A2A7-FB216484992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>Barchart</t>
-  </si>
-  <si>
-    <t>ES*0</t>
   </si>
   <si>
     <t>TDA</t>
@@ -172,7 +163,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -224,10 +215,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -245,6 +236,336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
+      <tp>
+        <v>-0.02</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>DGS10</stp>
+        <stp>FRED</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.05</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>MCD.US</stp>
+        <stp>EOD</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>453.08</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>SPY</stp>
+        <stp>Finnhub</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="tos.rtd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PERCENT_CHANGE</stp>
+        <stp>IVV</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
+      <tp>
+        <v>10.72</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>AAPL211217C00150000</stp>
+        <stp>Tradier</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.3206043499916984E-3</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>MSFT</stp>
+        <stp>AV</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp>
+        <v>8.1993099999999999E-2</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>DX-Y.NYB</stp>
+        <stp>Yahoo</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>301.14</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>MSFT</stp>
+        <stp>AV</stp>
+        <tr r="B8" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.12277914199046656</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>BOE/XUDLDSY</stp>
+        <stp>Quandl</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp>
+        <v>-2.4272380237869325E-2</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>SPY</stp>
+        <stp>Finnhub</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp>
+        <v>1.71</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>AAPL211217C00150000</stp>
+        <stp>Tradier</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp>
+        <v>154.30000000000001</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>AAPL</stp>
+        <stp>IEX</stp>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.01</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3829</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>BOE/XUDLDSY</stp>
+        <stp>Quandl</stp>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp>
+        <v>4535.0200000000004</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42299999999999999</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>AAPL</stp>
+        <stp>IEX</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+    </main>
+    <main first="tos.rtd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Last</stp>
+        <stp>IVV</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
+      <tp>
+        <v>-0.43773710759994999</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>MCD.US</stp>
+        <stp>EOD</stp>
+        <tr r="D9" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>2330.XTAI</stp>
+        <stp>marketstack</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.11</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>SPY</stp>
+        <stp>Finnhub</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>AAPL211217C00150000</stp>
+        <stp>Tradier</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp>
+        <v>92.117000000000004</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>DX-Y.NYB</stp>
+        <stp>Yahoo</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.5267200000000001</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>DGS10</stp>
+        <stp>FRED</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>8.9089039999999994E-2</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>DX-Y.NYB</stp>
+        <stp>Yahoo</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.29</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>DGS10</stp>
+        <stp>FRED</stp>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp>
+        <v>930.63732544700144</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>BTC</stp>
+        <stp>CoinMarketCap</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="tos.rtd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>NET_CHANGE</stp>
+        <stp>IVV</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
+      <tp>
+        <v>238.82</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>MCD.US</stp>
+        <stp>EOD</stp>
+        <tr r="B9" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.5200195000000001</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>^GSPC</stp>
+        <stp>FMP</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6999999999999999E-3</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>BOE/XUDLDSY</stp>
+        <stp>Quandl</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.3503110000000003E-2</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>^GSPC</stp>
+        <stp>FMP</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp>
+        <v>1.88547424</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>BTC</stp>
+        <stp>CoinMarketCap</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>2330.XTAI</stp>
+        <stp>marketstack</stp>
+        <tr r="B10" s="1"/>
+      </tp>
+      <tp>
+        <v>4535.43</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>^GSPC</stp>
+        <stp>FMP</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.55000000000000004</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.01</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>MSFT</stp>
+        <stp>AV</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>2330.XTAI</stp>
+        <stp>marketstack</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>AAPL</stp>
+        <stp>IEX</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp>
+        <v>50288.899862462698</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>BTC</stp>
+        <stp>CoinMarketCap</stp>
+        <tr r="B14" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,7 +865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +886,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5"/>
       <c r="F1" t="s">
         <v>2</v>
       </c>
@@ -578,324 +899,301 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <f>_xll.xlquotePrice(F2,G2)</f>
-        <v>4479.71</v>
+        <v>4535.43</v>
       </c>
       <c r="C2" s="2">
         <f>_xll.xlquoteChange(F2,G2)</f>
-        <v>11.71</v>
+        <v>-1.5200195000000001</v>
       </c>
       <c r="D2" s="3">
         <f>_xll.xlquoteChangePercent(F2,G2)/100</f>
-        <v>2.5999999999999999E-3</v>
+        <v>-3.3503110000000005E-4</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <f>_xll.xlquotePrice(F3,G3)</f>
-        <v>4452.78</v>
+        <v>4535.0200000000004</v>
       </c>
       <c r="C3" s="2">
         <f>_xll.xlquoteChange(F3,G3)</f>
-        <v>-26.25</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D3" s="3">
         <f>_xll.xlquoteChangePercent(F3,G3)/100</f>
-        <v>-5.8999999999999999E-3</v>
+        <v>-1E-4</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <f>_xll.xlquotePrice(F4,G4)</f>
-        <v>4449.25</v>
+        <v>453.08</v>
       </c>
       <c r="C4" s="2">
         <f>_xll.xlquoteChange(F4,G4)</f>
-        <v>-24.75</v>
+        <v>-0.11</v>
       </c>
       <c r="D4" s="3">
         <f>_xll.xlquoteChangePercent(F4,G4)/100</f>
-        <v>-5.5000000000000005E-3</v>
+        <v>-2.4272380237869325E-4</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="str">
         <f>_xll.xlquotePrice(F5,G5)</f>
-        <v>446.97</v>
-      </c>
-      <c r="C5" s="2">
+        <v/>
+      </c>
+      <c r="C5" s="2" t="str">
         <f>_xll.xlquoteChange(F5,G5)</f>
-        <v>1.05</v>
-      </c>
-      <c r="D5" s="3">
+        <v/>
+      </c>
+      <c r="D5" s="3" t="e">
         <f>_xll.xlquoteChangePercent(F5,G5)/100</f>
-        <v>2.3546824542518838E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <f>_xll.xlquotePrice(F6,G6)</f>
-        <v>446.83</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="C6" s="2">
         <f>_xll.xlquoteChange(F6,G6)</f>
-        <v>-2.17</v>
+        <v>0.65</v>
       </c>
       <c r="D6" s="3">
         <f>_xll.xlquoteChangePercent(F6,G6)/100</f>
-        <v>-4.8330000000000005E-3</v>
+        <v>4.2300000000000003E-3</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <f>_xll.xlquotePrice(F7,G7)</f>
-        <v>151.12</v>
+        <v>10.72</v>
       </c>
       <c r="C7" s="2">
         <f>_xll.xlquoteChange(F7,G7)</f>
-        <v>2.02</v>
+        <v>0.18</v>
       </c>
       <c r="D7" s="3">
         <f>_xll.xlquoteChangePercent(F7,G7)/100</f>
-        <v>1.355E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <f>_xll.xlquotePrice(F8,G8)</f>
-        <v>9.65</v>
+        <v>301.14</v>
       </c>
       <c r="C8" s="2">
         <f>_xll.xlquoteChange(F8,G8)</f>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="D8" s="3">
         <f>_xll.xlquoteChangePercent(F8,G8)/100</f>
-        <v>0</v>
+        <v>-3.3206043499916987E-5</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <f>_xll.xlquotePrice(F9,G9)</f>
-        <v>294.60000000000002</v>
+        <v>238.82</v>
       </c>
       <c r="C9" s="2">
         <f>_xll.xlquoteChange(F9,G9)</f>
-        <v>1.75</v>
-      </c>
-      <c r="D9" s="3" t="e">
+        <v>-1.05</v>
+      </c>
+      <c r="D9" s="3">
         <f>_xll.xlquoteChangePercent(F9,G9)/100</f>
-        <v>#VALUE!</v>
+        <v>-4.3773710759994998E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <f>_xll.xlquotePrice(F10,G10)</f>
-        <v>240.97</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <f>_xll.xlquoteChange(F10,G10)</f>
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <f>_xll.xlquoteChangePercent(F10,G10)/100</f>
-        <v>9.0025960974792728E-3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <f>_xll.xlquotePrice(F11,G11)</f>
-        <v>580</v>
+        <v>1.29</v>
       </c>
       <c r="C11" s="2">
         <f>_xll.xlquoteChange(F11,G11)</f>
-        <v>-4</v>
+        <v>-0.02</v>
       </c>
       <c r="D11" s="3">
         <f>_xll.xlquoteChangePercent(F11,G11)/100</f>
-        <v>-6.8493150684931512E-3</v>
+        <v>-1.5267200000000002E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <f>_xll.xlquotePrice(F12,G12)</f>
-        <v>1.29</v>
+        <v>92.117000000000004</v>
       </c>
       <c r="C12" s="2">
         <f>_xll.xlquoteChange(F12,G12)</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>8.1993099999999999E-2</v>
       </c>
       <c r="D12" s="3">
         <f>_xll.xlquoteChangePercent(F12,G12)/100</f>
-        <v>-5.1470599999999998E-2</v>
+        <v>8.908903999999999E-4</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4">
         <f>_xll.xlquotePrice(F13,G13)</f>
-        <v>92.667000000000002</v>
+        <v>1.3829</v>
       </c>
       <c r="C13" s="2">
         <f>_xll.xlquoteChange(F13,G13)</f>
-        <v>3.9001464999999999E-2</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="D13" s="3">
         <f>_xll.xlquoteChangePercent(F13,G13)/100</f>
-        <v>4.2105480000000003E-4</v>
+        <v>-1.2277914199046657E-3</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
         <f>_xll.xlquotePrice(F14,G14)</f>
-        <v>1.3829</v>
+        <v>50288.899862462698</v>
       </c>
       <c r="C14" s="2">
         <f>_xll.xlquoteChange(F14,G14)</f>
-        <v>-1.6999999999999999E-3</v>
+        <v>930.63732544700144</v>
       </c>
       <c r="D14" s="3">
         <f>_xll.xlquoteChangePercent(F14,G14)/100</f>
-        <v>-1.2277914199046657E-3</v>
+        <v>1.8854742399999999E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <f>_xll.xlquotePrice(F15,G15)</f>
-        <v>46494.847095051002</v>
-      </c>
-      <c r="C15" s="2">
-        <f>_xll.xlquoteChange(F15,G15)</f>
-        <v>-697.84066181071466</v>
-      </c>
-      <c r="D15" s="3">
-        <f>_xll.xlquoteChangePercent(F15,G15)/100</f>
-        <v>-1.4787050600000001E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Quote.xlsx
+++ b/Examples/Quote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D2F04-D0C7-4CB6-A2A7-FB216484992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A01A30-1E0C-4E19-BE25-49FDC9A24A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="23108" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -120,9 +120,6 @@
     <t>TSMC</t>
   </si>
   <si>
-    <t>AAPL211217C00150000</t>
-  </si>
-  <si>
     <t>AAPL Dec 17 2021 150 Call</t>
   </si>
   <si>
@@ -154,6 +151,18 @@
   </si>
   <si>
     <t>US Dollar Index</t>
+  </si>
+  <si>
+    <t>CMC200:INDEXNASDAQ</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>AAPL221216C00150000</t>
+  </si>
+  <si>
+    <t>CMC Crypto 200 Index</t>
   </si>
 </sst>
 </file>
@@ -241,327 +250,121 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
-      <tp>
-        <v>-0.02</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>DGS10</stp>
-        <stp>FRED</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.05</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>MCD.US</stp>
-        <stp>EOD</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>453.08</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>SPY</stp>
-        <stp>Finnhub</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
     <main first="tos.rtd">
-      <tp t="s">
-        <v/>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>PERCENT_CHANGE</stp>
         <stp>IVV</stp>
         <tr r="D5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>10.72</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>AAPL211217C00150000</stp>
-        <stp>Tradier</stp>
-        <tr r="B7" s="1"/>
-      </tp>
+        <v>-5.51</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>AAPL</stp>
+        <stp>IEX</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>-3.3206043499916984E-3</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>MSFT</stp>
-        <stp>AV</stp>
-        <tr r="D8" s="1"/>
-      </tp>
+        <v>8</v>
+        <stp/>
+        <stp>Change</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="tos.rtd">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>Last</stp>
+        <stp>IVV</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>8.1993099999999999E-2</v>
+        <v>4.1999817000000002E-2</v>
         <stp/>
         <stp>Change</stp>
         <stp>DX-Y.NYB</stp>
         <stp>Yahoo</stp>
         <tr r="C12" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>301.14</v>
+        <v>104.19</v>
         <stp/>
         <stp>Price</stp>
-        <stp>MSFT</stp>
-        <stp>AV</stp>
-        <tr r="B8" s="1"/>
-      </tp>
+        <stp>DX-Y.NYB</stp>
+        <stp>Yahoo</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>-0.12277914199046656</v>
+        <v>4.0327050000000003E-2</v>
         <stp/>
         <stp>ChangePercent</stp>
-        <stp>BOE/XUDLDSY</stp>
-        <stp>Quandl</stp>
-        <tr r="D13" s="1"/>
-      </tp>
+        <stp>DX-Y.NYB</stp>
+        <stp>Yahoo</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+    </main>
+    <main first="tos.rtd">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>NET_CHANGE</stp>
+        <stp>IVV</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>-2.4272380237869325E-2</v>
+        <v>-3.863</v>
         <stp/>
         <stp>ChangePercent</stp>
-        <stp>SPY</stp>
-        <stp>Finnhub</stp>
-        <tr r="D4" s="1"/>
-      </tp>
+        <stp>AAPL</stp>
+        <stp>IEX</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>1.71</v>
+        <v>3907.78</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
+      <tp>
+        <v>0.21</v>
         <stp/>
         <stp>ChangePercent</stp>
-        <stp>AAPL211217C00150000</stp>
-        <stp>Tradier</stp>
-        <tr r="D7" s="1"/>
-      </tp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
       <tp>
-        <v>154.30000000000001</v>
+        <v>137.13</v>
         <stp/>
         <stp>Price</stp>
         <stp>AAPL</stp>
         <stp>IEX</stp>
         <tr r="B6" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.01</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>IX.D.SPTRD.IFM.IP</stp>
-        <stp>IG</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3829</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>BOE/XUDLDSY</stp>
-        <stp>Quandl</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp>
-        <v>4535.0200000000004</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>IX.D.SPTRD.IFM.IP</stp>
-        <stp>IG</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.42299999999999999</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>AAPL</stp>
-        <stp>IEX</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-    </main>
-    <main first="tos.rtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Last</stp>
-        <stp>IVV</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
-      <tp>
-        <v>-0.43773710759994999</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>MCD.US</stp>
-        <stp>EOD</stp>
-        <tr r="D9" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>2330.XTAI</stp>
-        <stp>marketstack</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.11</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>SPY</stp>
-        <stp>Finnhub</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>AAPL211217C00150000</stp>
-        <stp>Tradier</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp>
-        <v>92.117000000000004</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>DX-Y.NYB</stp>
-        <stp>Yahoo</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.5267200000000001</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>DGS10</stp>
-        <stp>FRED</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>8.9089039999999994E-2</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>DX-Y.NYB</stp>
-        <stp>Yahoo</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.29</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>DGS10</stp>
-        <stp>FRED</stp>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp>
-        <v>930.63732544700144</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>BTC</stp>
-        <stp>CoinMarketCap</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="tos.rtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>NET_CHANGE</stp>
-        <stp>IVV</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e41dd0f898444c095e7fbef1495d258">
-      <tp>
-        <v>238.82</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>MCD.US</stp>
-        <stp>EOD</stp>
-        <tr r="B9" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.5200195000000001</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>^GSPC</stp>
-        <stp>FMP</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6999999999999999E-3</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>BOE/XUDLDSY</stp>
-        <stp>Quandl</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp>
-        <v>-3.3503110000000003E-2</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>^GSPC</stp>
-        <stp>FMP</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp>
-        <v>1.88547424</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>BTC</stp>
-        <stp>CoinMarketCap</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>2330.XTAI</stp>
-        <stp>marketstack</stp>
-        <tr r="B10" s="1"/>
-      </tp>
-      <tp>
-        <v>4535.43</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>^GSPC</stp>
-        <stp>FMP</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.55000000000000004</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>IX.D.SPTRD.IFM.IP</stp>
-        <stp>IG</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.01</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>MSFT</stp>
-        <stp>AV</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>2330.XTAI</stp>
-        <stp>marketstack</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>AAPL</stp>
-        <stp>IEX</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>50288.899862462698</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>BTC</stp>
-        <stp>CoinMarketCap</stp>
-        <tr r="B14" s="1"/>
       </tp>
     </main>
   </volType>
@@ -865,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,15 +706,15 @@
       </c>
       <c r="B2" s="1">
         <f>_xll.xlquotePrice(F2,G2)</f>
-        <v>4535.43</v>
+        <v>3900.86</v>
       </c>
       <c r="C2" s="2">
         <f>_xll.xlquoteChange(F2,G2)</f>
-        <v>-1.5200195000000001</v>
+        <v>-116.95996</v>
       </c>
       <c r="D2" s="3">
         <f>_xll.xlquoteChangePercent(F2,G2)/100</f>
-        <v>-3.3503110000000005E-4</v>
+        <v>-2.9110303000000001E-2</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -922,45 +725,45 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <f>_xll.xlquotePrice(F3,G3)</f>
-        <v>4535.0200000000004</v>
+        <v>3907.78</v>
       </c>
       <c r="C3" s="2">
         <f>_xll.xlquoteChange(F3,G3)</f>
-        <v>-0.55000000000000004</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <f>_xll.xlquoteChangePercent(F3,G3)/100</f>
-        <v>-1E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <f>_xll.xlquotePrice(F4,G4)</f>
-        <v>453.08</v>
+        <v>389.8</v>
       </c>
       <c r="C4" s="2">
         <f>_xll.xlquoteChange(F4,G4)</f>
-        <v>-0.11</v>
+        <v>-11.64</v>
       </c>
       <c r="D4" s="3">
         <f>_xll.xlquoteChangePercent(F4,G4)/100</f>
-        <v>-2.4272380237869325E-4</v>
+        <v>-2.8995615783180551E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -970,9 +773,9 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="1" t="e">
         <f>_xll.xlquotePrice(F5,G5)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>_xll.xlquoteChange(F5,G5)</f>
@@ -995,15 +798,15 @@
       </c>
       <c r="B6" s="1">
         <f>_xll.xlquotePrice(F6,G6)</f>
-        <v>154.30000000000001</v>
+        <v>137.13</v>
       </c>
       <c r="C6" s="2">
         <f>_xll.xlquoteChange(F6,G6)</f>
-        <v>0.65</v>
+        <v>-5.51</v>
       </c>
       <c r="D6" s="3">
         <f>_xll.xlquoteChangePercent(F6,G6)/100</f>
-        <v>4.2300000000000003E-3</v>
+        <v>-3.8629999999999998E-2</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1014,22 +817,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <f>_xll.xlquotePrice(F7,G7)</f>
-        <v>10.72</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C7" s="2">
         <f>_xll.xlquoteChange(F7,G7)</f>
-        <v>0.18</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="D7" s="3">
         <f>_xll.xlquoteChangePercent(F7,G7)/100</f>
-        <v>1.7100000000000001E-2</v>
+        <v>-0.21780000000000002</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
@@ -1041,15 +844,15 @@
       </c>
       <c r="B8" s="1">
         <f>_xll.xlquotePrice(F8,G8)</f>
-        <v>301.14</v>
+        <v>252.99</v>
       </c>
       <c r="C8" s="2">
         <f>_xll.xlquoteChange(F8,G8)</f>
-        <v>-0.01</v>
+        <v>-11.8</v>
       </c>
       <c r="D8" s="3">
         <f>_xll.xlquoteChangePercent(F8,G8)/100</f>
-        <v>-3.3206043499916987E-5</v>
+        <v>-4.4563616450772309E-2</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1064,15 +867,15 @@
       </c>
       <c r="B9" s="1">
         <f>_xll.xlquotePrice(F9,G9)</f>
-        <v>238.82</v>
+        <v>237.38</v>
       </c>
       <c r="C9" s="2">
         <f>_xll.xlquoteChange(F9,G9)</f>
-        <v>-1.05</v>
+        <v>-4.78</v>
       </c>
       <c r="D9" s="3">
         <f>_xll.xlquoteChangePercent(F9,G9)/100</f>
-        <v>-4.3773710759994998E-3</v>
+        <v>-1.973901552692435E-2</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1087,15 +890,15 @@
       </c>
       <c r="B10" s="1">
         <f>_xll.xlquotePrice(F10,G10)</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="C10" s="2">
         <f>_xll.xlquoteChange(F10,G10)</f>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D10" s="3">
         <f>_xll.xlquoteChangePercent(F10,G10)/100</f>
-        <v>0</v>
+        <v>-2.0332717190388171E-2</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1110,15 +913,15 @@
       </c>
       <c r="B11" s="1">
         <f>_xll.xlquotePrice(F11,G11)</f>
-        <v>1.29</v>
+        <v>3.04</v>
       </c>
       <c r="C11" s="2">
         <f>_xll.xlquoteChange(F11,G11)</f>
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="3">
         <f>_xll.xlquoteChangePercent(F11,G11)/100</f>
-        <v>-1.5267200000000002E-2</v>
+        <v>3.3002999999999999E-3</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1129,30 +932,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <f>_xll.xlquotePrice(F12,G12)</f>
-        <v>92.117000000000004</v>
+        <v>104.19</v>
       </c>
       <c r="C12" s="2">
         <f>_xll.xlquoteChange(F12,G12)</f>
-        <v>8.1993099999999999E-2</v>
+        <v>4.1999817000000002E-2</v>
       </c>
       <c r="D12" s="3">
         <f>_xll.xlquoteChangePercent(F12,G12)/100</f>
-        <v>8.908903999999999E-4</v>
+        <v>4.0327050000000001E-4</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4">
         <f>_xll.xlquotePrice(F13,G13)</f>
@@ -1167,10 +970,10 @@
         <v>-1.2277914199046657E-3</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1179,21 +982,44 @@
       </c>
       <c r="B14" s="1">
         <f>_xll.xlquotePrice(F14,G14)</f>
-        <v>50288.899862462698</v>
+        <v>29273.663461941302</v>
       </c>
       <c r="C14" s="2">
         <f>_xll.xlquoteChange(F14,G14)</f>
-        <v>930.63732544700144</v>
+        <v>-801.46684531253436</v>
       </c>
       <c r="D14" s="3">
         <f>_xll.xlquoteChangePercent(F14,G14)/100</f>
-        <v>1.8854742399999999E-2</v>
+        <v>-2.6648823700000001E-2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <f>_xll.xlquotePrice(F15,G15)</f>
+        <v>626.44000000000005</v>
+      </c>
+      <c r="C15" s="2">
+        <f>_xll.xlquoteChange(F15,G15)</f>
+        <v>-26.16</v>
+      </c>
+      <c r="D15" s="3">
+        <f>_xll.xlquoteChangePercent(F15,G15)/100</f>
+        <v>-4.0085810603738885E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Quote.xlsx
+++ b/Examples/Quote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A01A30-1E0C-4E19-BE25-49FDC9A24A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F765B713-A18A-4962-BB43-DF3DEAC0F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="23108" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Change</t>
   </si>
   <si>
-    <t>FMP</t>
-  </si>
-  <si>
     <t>MSFT</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>TSMC</t>
   </si>
   <si>
-    <t>AAPL Dec 17 2021 150 Call</t>
-  </si>
-  <si>
     <t>SPY</t>
   </si>
   <si>
@@ -159,10 +153,22 @@
     <t>Google</t>
   </si>
   <si>
-    <t>AAPL221216C00150000</t>
-  </si>
-  <si>
     <t>CMC Crypto 200 Index</t>
+  </si>
+  <si>
+    <t>Bitcoin Perpetual</t>
+  </si>
+  <si>
+    <t>BTC-PERPETUAL</t>
+  </si>
+  <si>
+    <t>Deribit</t>
+  </si>
+  <si>
+    <t>AAPL230317C00150000</t>
+  </si>
+  <si>
+    <t>AAPL Mar 17 2023 150 Call</t>
   </si>
 </sst>
 </file>
@@ -250,28 +256,88 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="tos.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
+      <tp>
+        <v>0.39369999999999999</v>
         <stp/>
-        <stp>PERCENT_CHANGE</stp>
+        <stp>ChangePercent</stp>
         <stp>IVV</stp>
+        <stp>TDA</stp>
         <tr r="D5" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
+    <main first="rtdsrv_f3af1c1fb2244f60925fc40c6af68344">
       <tp>
-        <v>-5.51</v>
+        <v>304</v>
+        <stp/>
+        <stp>c7d17fde-9f0d-45a5-ad88-63008ab141ba</stp>
+        <tr r="C15" s="1"/>
+        <tr r="C15" s="1"/>
+        <tr r="B15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
+      <tp>
+        <v>1.1499999999999999</v>
         <stp/>
         <stp>Change</stp>
+        <stp>IVV</stp>
+        <stp>TDA</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp>
+        <v>399.95</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>IVV</stp>
+        <stp>TDA</stp>
+        <tr r="B5" s="1"/>
+      </tp>
+      <tp>
+        <v>134.72999999999999</v>
+        <stp/>
+        <stp>Price</stp>
         <stp>AAPL</stp>
         <stp>IEX</stp>
-        <tr r="C6" s="1"/>
+        <tr r="B6" s="1"/>
+      </tp>
+      <tp>
+        <v>0.04</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3999.8</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>0.98899999999999999</v>
+        <stp/>
+        <stp>ChangePercent</stp>
+        <stp>AAPL</stp>
+        <stp>IEX</stp>
+        <tr r="D6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
+    <main first="rtdsrv_f3af1c1fb2244f60925fc40c6af68344">
       <tp>
-        <v>8</v>
+        <v>304</v>
+        <stp/>
+        <stp>ccd90c5b-c074-46db-b479-05065de4d6ee</stp>
+        <tr r="D15" s="1"/>
+        <tr r="C15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
+      <tp>
+        <v>1.45</v>
         <stp/>
         <stp>Change</stp>
         <stp>IX.D.SPTRD.IFM.IP</stp>
@@ -279,92 +345,14 @@
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="tos.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>Last</stp>
-        <stp>IVV</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
+    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
       <tp>
-        <v>4.1999817000000002E-2</v>
+        <v>1.32</v>
         <stp/>
         <stp>Change</stp>
-        <stp>DX-Y.NYB</stp>
-        <stp>Yahoo</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
-      <tp>
-        <v>104.19</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>DX-Y.NYB</stp>
-        <stp>Yahoo</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
-      <tp>
-        <v>4.0327050000000003E-2</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>DX-Y.NYB</stp>
-        <stp>Yahoo</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-    </main>
-    <main first="tos.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>NET_CHANGE</stp>
-        <stp>IVV</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
-      <tp>
-        <v>-3.863</v>
-        <stp/>
-        <stp>ChangePercent</stp>
         <stp>AAPL</stp>
         <stp>IEX</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
-      <tp>
-        <v>3907.78</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>IX.D.SPTRD.IFM.IP</stp>
-        <stp>IG</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
-      <tp>
-        <v>0.21</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>IX.D.SPTRD.IFM.IP</stp>
-        <stp>IG</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.37bcab93ee9b4fddbc687e13c18d2b06">
-      <tp>
-        <v>137.13</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>AAPL</stp>
-        <stp>IEX</stp>
-        <tr r="B6" s="1"/>
+        <tr r="C6" s="1"/>
       </tp>
     </main>
   </volType>
@@ -668,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +664,8 @@
   <cols>
     <col min="1" max="1" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.53125" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.59765625" customWidth="1"/>
     <col min="6" max="6" width="19.9296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.9296875" bestFit="1" customWidth="1"/>
@@ -702,88 +691,88 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <f>_xll.xlquotePrice(F2,G2)</f>
-        <v>3900.86</v>
+        <v>3999.09</v>
       </c>
       <c r="C2" s="2">
         <f>_xll.xlquoteChange(F2,G2)</f>
-        <v>-116.95996</v>
+        <v>15.920166</v>
       </c>
       <c r="D2" s="3">
         <f>_xll.xlquoteChangePercent(F2,G2)/100</f>
-        <v>-2.9110303000000001E-2</v>
+        <v>3.9968583000000004E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <f>_xll.xlquotePrice(F3,G3)</f>
-        <v>3907.78</v>
+        <v>3999.8</v>
       </c>
       <c r="C3" s="2">
         <f>_xll.xlquoteChange(F3,G3)</f>
-        <v>8</v>
+        <v>1.45</v>
       </c>
       <c r="D3" s="3">
         <f>_xll.xlquoteChangePercent(F3,G3)/100</f>
-        <v>2.0999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <f>_xll.xlquotePrice(F4,G4)</f>
-        <v>389.8</v>
+        <v>398.5</v>
       </c>
       <c r="C4" s="2">
         <f>_xll.xlquoteChange(F4,G4)</f>
-        <v>-11.64</v>
+        <v>1.54</v>
       </c>
       <c r="D4" s="3">
         <f>_xll.xlquoteChangePercent(F4,G4)/100</f>
-        <v>-2.8995615783180551E-2</v>
+        <v>3.8794840790004038E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="e">
+      <c r="B5" s="1">
         <f>_xll.xlquotePrice(F5,G5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="2" t="str">
+        <v>399.95</v>
+      </c>
+      <c r="C5" s="2">
         <f>_xll.xlquoteChange(F5,G5)</f>
-        <v/>
-      </c>
-      <c r="D5" s="3" t="e">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D5" s="3">
         <f>_xll.xlquoteChangePercent(F5,G5)/100</f>
-        <v>#VALUE!</v>
+        <v>3.9369999999999995E-3</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -798,15 +787,15 @@
       </c>
       <c r="B6" s="1">
         <f>_xll.xlquotePrice(F6,G6)</f>
-        <v>137.13</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="C6" s="2">
         <f>_xll.xlquoteChange(F6,G6)</f>
-        <v>-5.51</v>
+        <v>1.32</v>
       </c>
       <c r="D6" s="3">
         <f>_xll.xlquoteChangePercent(F6,G6)/100</f>
-        <v>-3.8629999999999998E-2</v>
+        <v>9.8899999999999995E-3</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -817,45 +806,45 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <f>_xll.xlquotePrice(F7,G7)</f>
-        <v>8.8000000000000007</v>
+        <v>1.52</v>
       </c>
       <c r="C7" s="2">
         <f>_xll.xlquoteChange(F7,G7)</f>
-        <v>-2.4500000000000002</v>
+        <v>-0.05</v>
       </c>
       <c r="D7" s="3">
         <f>_xll.xlquoteChangePercent(F7,G7)/100</f>
-        <v>-0.21780000000000002</v>
+        <v>-3.1899999999999998E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <f>_xll.xlquotePrice(F8,G8)</f>
-        <v>252.99</v>
+        <v>239.23</v>
       </c>
       <c r="C8" s="2">
         <f>_xll.xlquoteChange(F8,G8)</f>
-        <v>-11.8</v>
+        <v>0.72</v>
       </c>
       <c r="D8" s="3">
         <f>_xll.xlquoteChangePercent(F8,G8)/100</f>
-        <v>-4.4563616450772309E-2</v>
+        <v>3.0187413525638342E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
@@ -863,48 +852,48 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <f>_xll.xlquotePrice(F9,G9)</f>
-        <v>237.38</v>
+        <v>268.89</v>
       </c>
       <c r="C9" s="2">
         <f>_xll.xlquoteChange(F9,G9)</f>
-        <v>-4.78</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="3">
         <f>_xll.xlquoteChangePercent(F9,G9)/100</f>
-        <v>-1.973901552692435E-2</v>
+        <v>8.2492781881585361E-3</v>
       </c>
       <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <f>_xll.xlquotePrice(F10,G10)</f>
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="C10" s="2">
         <f>_xll.xlquoteChange(F10,G10)</f>
-        <v>-11</v>
+        <v>13.5</v>
       </c>
       <c r="D10" s="3">
         <f>_xll.xlquoteChangePercent(F10,G10)/100</f>
-        <v>-2.0332717190388171E-2</v>
+        <v>2.7749229188078112E-2</v>
       </c>
       <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -913,15 +902,15 @@
       </c>
       <c r="B11" s="1">
         <f>_xll.xlquotePrice(F11,G11)</f>
-        <v>3.04</v>
+        <v>3.43</v>
       </c>
       <c r="C11" s="2">
         <f>_xll.xlquoteChange(F11,G11)</f>
-        <v>0.01</v>
+        <v>-0.11</v>
       </c>
       <c r="D11" s="3">
         <f>_xll.xlquoteChangePercent(F11,G11)/100</f>
-        <v>3.3002999999999999E-3</v>
+        <v>-3.1073400000000001E-2</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -932,30 +921,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
         <f>_xll.xlquotePrice(F12,G12)</f>
-        <v>104.19</v>
+        <v>102.18</v>
       </c>
       <c r="C12" s="2">
         <f>_xll.xlquoteChange(F12,G12)</f>
-        <v>4.1999817000000002E-2</v>
+        <v>-6.6001889999999994E-2</v>
       </c>
       <c r="D12" s="3">
         <f>_xll.xlquoteChangePercent(F12,G12)/100</f>
-        <v>4.0327050000000001E-4</v>
+        <v>-6.4552054000000002E-4</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4">
         <f>_xll.xlquotePrice(F13,G13)</f>
@@ -970,10 +959,10 @@
         <v>-1.2277914199046657E-3</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -982,15 +971,15 @@
       </c>
       <c r="B14" s="1">
         <f>_xll.xlquotePrice(F14,G14)</f>
-        <v>29273.663461941302</v>
+        <v>19853.139851478099</v>
       </c>
       <c r="C14" s="2">
         <f>_xll.xlquoteChange(F14,G14)</f>
-        <v>-801.46684531253436</v>
+        <v>977.06129606727757</v>
       </c>
       <c r="D14" s="3">
         <f>_xll.xlquoteChangePercent(F14,G14)/100</f>
-        <v>-2.6648823700000001E-2</v>
+        <v>5.1761879100000005E-2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1001,25 +990,48 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <f>_xll.xlquotePrice(F15,G15)</f>
-        <v>626.44000000000005</v>
+        <v>19870</v>
       </c>
       <c r="C15" s="2">
         <f>_xll.xlquoteChange(F15,G15)</f>
-        <v>-26.16</v>
+        <v>989.00537923052582</v>
       </c>
       <c r="D15" s="3">
         <f>_xll.xlquoteChangePercent(F15,G15)/100</f>
-        <v>-4.0085810603738885E-2</v>
+        <v>5.2381000000000004E-2</v>
       </c>
       <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="G15" t="s">
-        <v>40</v>
+      <c r="B16" s="1">
+        <f>_xll.xlquotePrice(F16,G16)</f>
+        <v>458.14</v>
+      </c>
+      <c r="C16" s="2">
+        <f>_xll.xlquoteChange(F16,G16)</f>
+        <v>18.07</v>
+      </c>
+      <c r="D16" s="3">
+        <f>_xll.xlquoteChangePercent(F16,G16)/100</f>
+        <v>4.1061649283068602E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Quote.xlsx
+++ b/Examples/Quote.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F765B713-A18A-4962-BB43-DF3DEAC0F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="10330"/>
   </bookViews>
   <sheets>
     <sheet name="Quote" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -48,12 +47,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>TDA</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
     <t>AV</t>
   </si>
   <si>
@@ -75,12 +68,6 @@
     <t>10 Year Treasury Yield</t>
   </si>
   <si>
-    <t>IVV</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -90,9 +77,6 @@
     <t>Finnhub</t>
   </si>
   <si>
-    <t>^GSPC</t>
-  </si>
-  <si>
     <t>S&amp;P 500</t>
   </si>
   <si>
@@ -108,9 +92,6 @@
     <t>2330.XTAI</t>
   </si>
   <si>
-    <t>marketstack</t>
-  </si>
-  <si>
     <t>MCD</t>
   </si>
   <si>
@@ -129,15 +110,6 @@
     <t>IG</t>
   </si>
   <si>
-    <t>GBP/USD 1 Year Forward</t>
-  </si>
-  <si>
-    <t>BOE/XUDLDSY</t>
-  </si>
-  <si>
-    <t>Quandl</t>
-  </si>
-  <si>
     <t>Yahoo</t>
   </si>
   <si>
@@ -147,15 +119,6 @@
     <t>US Dollar Index</t>
   </si>
   <si>
-    <t>CMC200:INDEXNASDAQ</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>CMC Crypto 200 Index</t>
-  </si>
-  <si>
     <t>Bitcoin Perpetual</t>
   </si>
   <si>
@@ -165,20 +128,28 @@
     <t>Deribit</t>
   </si>
   <si>
-    <t>AAPL230317C00150000</t>
-  </si>
-  <si>
     <t>AAPL Mar 17 2023 150 Call</t>
+  </si>
+  <si>
+    <t>Marketstack</t>
+  </si>
+  <si>
+    <t>AAPL250117C00250000</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>SPX@CBOE//IND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]\-#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -225,12 +196,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,103 +226,126 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
+    <main first="tws.twsrtdserverctrl">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SPX@CBOE//IND</stp>
+        <stp>PlPrice</stp>
+        <tr r="D2" s="1"/>
+        <tr r="B2" s="1"/>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_e085bf6d68cc4b85bde26146a742cdb8">
       <tp>
-        <v>0.39369999999999999</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>IVV</stp>
-        <stp>TDA</stp>
-        <tr r="D5" s="1"/>
+        <v>157</v>
+        <stp/>
+        <stp>b416c55d-8a6b-4ab6-b909-8efb6daa6172</stp>
+        <tr r="D12" s="1"/>
+        <tr r="C12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_f3af1c1fb2244f60925fc40c6af68344">
+    <main first="tws.twsrtdserverctrl">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SPX@CBOE//IND</stp>
+        <stp>Last</stp>
+        <tr r="D2" s="1"/>
+        <tr r="B2" s="1"/>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_e085bf6d68cc4b85bde26146a742cdb8">
       <tp>
-        <v>304</v>
-        <stp/>
-        <stp>c7d17fde-9f0d-45a5-ad88-63008ab141ba</stp>
-        <tr r="C15" s="1"/>
-        <tr r="C15" s="1"/>
-        <tr r="B15" s="1"/>
+        <v>157</v>
+        <stp/>
+        <stp>cee16a2a-e51c-4f29-bc9b-e40c59ddc10f</stp>
+        <tr r="C12" s="1"/>
+        <tr r="C12" s="1"/>
+        <tr r="B12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
+    <main first="tws.twsrtdserverctrl">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SPX@CBOE//IND</stp>
+        <stp>DelayedClose</stp>
+        <tr r="D2" s="1"/>
+        <tr r="B2" s="1"/>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a3b52098de9047428e151ded0fc74181">
       <tp>
-        <v>1.1499999999999999</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>IVV</stp>
-        <stp>TDA</stp>
-        <tr r="C5" s="1"/>
-      </tp>
+        <v>5801.63</v>
+        <stp/>
+        <stp>Price</stp>
+        <stp>IX.D.SPTRD.IFM.IP</stp>
+        <stp>IG</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="tws.twsrtdserverctrl">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SPX@CBOE//IND</stp>
+        <stp>DelayedLast</stp>
+        <tr r="D2" s="1"/>
+        <tr r="B2" s="1"/>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a3b52098de9047428e151ded0fc74181">
       <tp>
-        <v>399.95</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>IVV</stp>
-        <stp>TDA</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-      <tp>
-        <v>134.72999999999999</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>AAPL</stp>
-        <stp>IEX</stp>
-        <tr r="B6" s="1"/>
-      </tp>
-      <tp>
-        <v>0.04</v>
+        <v>-0.41</v>
         <stp/>
         <stp>ChangePercent</stp>
         <stp>IX.D.SPTRD.IFM.IP</stp>
         <stp>IG</stp>
         <tr r="D3" s="1"/>
       </tp>
+    </main>
+    <main first="tws.twsrtdserverctrl">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SPX@CBOE//IND</stp>
+        <stp>Close</stp>
+        <tr r="D2" s="1"/>
+        <tr r="B2" s="1"/>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SPX@CBOE//IND</stp>
+        <stp>Bid</stp>
+        <tr r="D2" s="1"/>
+        <tr r="B2" s="1"/>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SPX@CBOE//IND</stp>
+        <stp>Ask</stp>
+        <tr r="D2" s="1"/>
+        <tr r="B2" s="1"/>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_a3b52098de9047428e151ded0fc74181">
       <tp>
-        <v>3999.8</v>
-        <stp/>
-        <stp>Price</stp>
-        <stp>IX.D.SPTRD.IFM.IP</stp>
-        <stp>IG</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp>
-        <v>0.98899999999999999</v>
-        <stp/>
-        <stp>ChangePercent</stp>
-        <stp>AAPL</stp>
-        <stp>IEX</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_f3af1c1fb2244f60925fc40c6af68344">
-      <tp>
-        <v>304</v>
-        <stp/>
-        <stp>ccd90c5b-c074-46db-b479-05065de4d6ee</stp>
-        <tr r="D15" s="1"/>
-        <tr r="C15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
-      <tp>
-        <v>1.45</v>
+        <v>-23.95</v>
         <stp/>
         <stp>Change</stp>
         <stp>IX.D.SPTRD.IFM.IP</stp>
         <stp>IG</stp>
         <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_cc271b35a07a487c9e72b7a1560cd302">
-      <tp>
-        <v>1.32</v>
-        <stp/>
-        <stp>Change</stp>
-        <stp>AAPL</stp>
-        <stp>IEX</stp>
-        <tr r="C6" s="1"/>
       </tp>
     </main>
   </volType>
@@ -655,33 +648,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.55" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4"/>
       <c r="F1" t="s">
         <v>2</v>
       </c>
@@ -689,349 +682,257 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="e">
         <f>_xll.xlquotePrice(F2,G2)</f>
-        <v>3999.09</v>
-      </c>
-      <c r="C2" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="2" t="e">
         <f>_xll.xlquoteChange(F2,G2)</f>
-        <v>15.920166</v>
-      </c>
-      <c r="D2" s="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="3" t="e">
         <f>_xll.xlquoteChangePercent(F2,G2)/100</f>
-        <v>3.9968583000000004E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <f>_xll.xlquotePrice(F3,G3)</f>
-        <v>3999.8</v>
+        <v>5801.63</v>
       </c>
       <c r="C3" s="2">
         <f>_xll.xlquoteChange(F3,G3)</f>
-        <v>1.45</v>
+        <v>-23.95</v>
       </c>
       <c r="D3" s="3">
         <f>_xll.xlquoteChangePercent(F3,G3)/100</f>
-        <v>4.0000000000000002E-4</v>
+        <v>-4.0999999999999995E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <f>_xll.xlquotePrice(F4,G4)</f>
-        <v>398.5</v>
+        <v>580.49</v>
       </c>
       <c r="C4" s="2">
         <f>_xll.xlquoteChange(F4,G4)</f>
-        <v>1.54</v>
+        <v>-9</v>
       </c>
       <c r="D4" s="3">
         <f>_xll.xlquoteChangePercent(F4,G4)/100</f>
-        <v>3.8794840790004038E-3</v>
+        <v>-1.5267434562079085E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <f>_xll.xlquotePrice(F5,G5)</f>
-        <v>399.95</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="2">
         <f>_xll.xlquoteChange(F5,G5)</f>
-        <v>1.1499999999999999</v>
+        <v>-0.54</v>
       </c>
       <c r="D5" s="3">
         <f>_xll.xlquoteChangePercent(F5,G5)/100</f>
-        <v>3.9369999999999995E-3</v>
+        <v>-0.81819999999999993</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <f>_xll.xlquotePrice(F6,G6)</f>
-        <v>134.72999999999999</v>
+        <v>418.95</v>
       </c>
       <c r="C6" s="2">
         <f>_xll.xlquoteChange(F6,G6)</f>
-        <v>1.32</v>
+        <v>-5.61</v>
       </c>
       <c r="D6" s="3">
         <f>_xll.xlquoteChangePercent(F6,G6)/100</f>
-        <v>9.8899999999999995E-3</v>
+        <v>-1.3213680045223291E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f>_xll.xlquotePrice(F7,G7)</f>
-        <v>1.52</v>
+        <v>282.31</v>
       </c>
       <c r="C7" s="2">
         <f>_xll.xlquoteChange(F7,G7)</f>
-        <v>-0.05</v>
+        <v>-4.59</v>
       </c>
       <c r="D7" s="3">
         <f>_xll.xlquoteChangePercent(F7,G7)/100</f>
-        <v>-3.1899999999999998E-2</v>
+        <v>-1.5998605785988149E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>16</v>
       </c>
       <c r="B8" s="1">
         <f>_xll.xlquotePrice(F8,G8)</f>
-        <v>239.23</v>
+        <v>1100</v>
       </c>
       <c r="C8" s="2">
         <f>_xll.xlquoteChange(F8,G8)</f>
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <f>_xll.xlquoteChangePercent(F8,G8)/100</f>
-        <v>3.0187413525638342E-3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <f>_xll.xlquotePrice(F9,G9)</f>
-        <v>268.89</v>
+        <v>4.68</v>
       </c>
       <c r="C9" s="2">
         <f>_xll.xlquoteChange(F9,G9)</f>
-        <v>2.2000000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="D9" s="3">
         <f>_xll.xlquoteChangePercent(F9,G9)/100</f>
-        <v>8.2492781881585361E-3</v>
+        <v>2.1413000000000001E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <f>_xll.xlquotePrice(F10,G10)</f>
-        <v>500</v>
+        <v>109.88</v>
       </c>
       <c r="C10" s="2">
         <f>_xll.xlquoteChange(F10,G10)</f>
-        <v>13.5</v>
-      </c>
-      <c r="D10" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D10" s="3" t="e">
         <f>_xll.xlquoteChangePercent(F10,G10)/100</f>
-        <v>2.7749229188078112E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <f>_xll.xlquotePrice(F11,G11)</f>
-        <v>3.43</v>
+        <v>94176.110342734799</v>
       </c>
       <c r="C11" s="2">
         <f>_xll.xlquoteChange(F11,G11)</f>
-        <v>-0.11</v>
+        <v>-389.227345900123</v>
       </c>
       <c r="D11" s="3">
         <f>_xll.xlquoteChangePercent(F11,G11)/100</f>
-        <v>-3.1073400000000001E-2</v>
+        <v>-4.1159621000000004E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <f>_xll.xlquotePrice(F12,G12)</f>
-        <v>102.18</v>
+        <v>94270</v>
       </c>
       <c r="C12" s="2">
         <f>_xll.xlquoteChange(F12,G12)</f>
-        <v>-6.6001889999999994E-2</v>
+        <v>-310.50780713081048</v>
       </c>
       <c r="D12" s="3">
         <f>_xll.xlquoteChangePercent(F12,G12)/100</f>
-        <v>-6.4552054000000002E-4</v>
+        <v>-3.2829999999999999E-3</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4">
-        <f>_xll.xlquotePrice(F13,G13)</f>
-        <v>1.3829</v>
-      </c>
-      <c r="C13" s="2">
-        <f>_xll.xlquoteChange(F13,G13)</f>
-        <v>-1.6999999999999999E-3</v>
-      </c>
-      <c r="D13" s="3">
-        <f>_xll.xlquoteChangePercent(F13,G13)/100</f>
-        <v>-1.2277914199046657E-3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <f>_xll.xlquotePrice(F14,G14)</f>
-        <v>19853.139851478099</v>
-      </c>
-      <c r="C14" s="2">
-        <f>_xll.xlquoteChange(F14,G14)</f>
-        <v>977.06129606727757</v>
-      </c>
-      <c r="D14" s="3">
-        <f>_xll.xlquoteChangePercent(F14,G14)/100</f>
-        <v>5.1761879100000005E-2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1">
-        <f>_xll.xlquotePrice(F15,G15)</f>
-        <v>19870</v>
-      </c>
-      <c r="C15" s="2">
-        <f>_xll.xlquoteChange(F15,G15)</f>
-        <v>989.00537923052582</v>
-      </c>
-      <c r="D15" s="3">
-        <f>_xll.xlquoteChangePercent(F15,G15)/100</f>
-        <v>5.2381000000000004E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1">
-        <f>_xll.xlquotePrice(F16,G16)</f>
-        <v>458.14</v>
-      </c>
-      <c r="C16" s="2">
-        <f>_xll.xlquoteChange(F16,G16)</f>
-        <v>18.07</v>
-      </c>
-      <c r="D16" s="3">
-        <f>_xll.xlquoteChangePercent(F16,G16)/100</f>
-        <v>4.1061649283068602E-2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +940,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
